--- a/Docs/Level_2_MA_Selection.xlsx
+++ b/Docs/Level_2_MA_Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/issackondreddy/Desktop/Education/Projects/Cancer Detection/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C078589-835E-024A-8CAF-B036F4BDDF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1EC87-5560-B14C-A1DB-6B57F3709CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15180" xr2:uid="{4667DECB-B072-A642-BF13-D9F6F63DD6DD}"/>
   </bookViews>
@@ -125,14 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C6C246-C926-864C-839D-86D49BC17854}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -504,7 +503,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -513,72 +512,72 @@
       <c r="C2">
         <v>3087.797</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>4731.1989999999996</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>6656.3059999999996</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>18.64</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>19.25</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.64</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>4394.3950000000004</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>5716.79</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>6554.2129999999997</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>29144219.655999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>351980131.55000001</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2551883723.0300002</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -586,51 +585,99 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="2">
+        <v>1859.99</v>
+      </c>
+      <c r="D10" s="2">
+        <v>17918.88</v>
+      </c>
+      <c r="E10" s="2">
+        <v>19839.580000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="C11" s="2">
+        <v>20.184000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20.338999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="F11" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>8</v>
       </c>
+      <c r="C12" s="2">
+        <v>2078.1320000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15163.701999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16739.23</v>
+      </c>
+      <c r="F12" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>9</v>
       </c>
+      <c r="C13" s="2">
+        <v>56543284.173</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4944950170.0799999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8721743502.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -638,34 +685,22 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Docs/Level_2_MA_Selection.xlsx
+++ b/Docs/Level_2_MA_Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/issackondreddy/Desktop/Education/Projects/Cancer Detection/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1EC87-5560-B14C-A1DB-6B57F3709CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5480F51-F4FA-BC47-A38D-2738E5E28FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15180" xr2:uid="{4667DECB-B072-A642-BF13-D9F6F63DD6DD}"/>
   </bookViews>
@@ -583,23 +583,71 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="2">
+        <v>13351.37</v>
+      </c>
+      <c r="D6" s="2">
+        <v>21908.823</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12334.47</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="2">
+        <v>20.385999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20.57</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="2">
+        <v>6023.03</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15886.76</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14125.9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>748771679.05999994</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2700259755.8499999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4596318786.7700005</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
